--- a/IEDC_Classification_fill/building_types_data.xlsx
+++ b/IEDC_Classification_fill/building_types_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>reserved</t>
+  </si>
+  <si>
+    <t>average building</t>
+  </si>
+  <si>
+    <t>shearing-force structure dwellings</t>
+  </si>
+  <si>
+    <t>brick concrete structure dwellings</t>
   </si>
 </sst>
 </file>
@@ -480,7 +489,7 @@
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -816,8 +825,8 @@
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>36</v>
+      <c r="F19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -830,8 +839,8 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>36</v>
+      <c r="F20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
